--- a/doc/EMR Calcs.xlsx
+++ b/doc/EMR Calcs.xlsx
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +64,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,10 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -460,29 +466,32 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2000</v>
+        <v>2030</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <f>A2/B2*C2*D2</f>
-        <v>1000</v>
+        <v>283.13157894736844</v>
       </c>
       <c r="F2">
         <f>E2/60</f>
-        <v>16.666666666666668</v>
+        <v>4.7188596491228072</v>
       </c>
       <c r="G2" s="1">
-        <f>0.015*B2*F2</f>
-        <v>125.00000000000001</v>
-      </c>
+        <f>0.085*B2*F2</f>
+        <v>7.6209583333333351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
